--- a/docs/cda-logical-model/StructureDefinition-Component2.xlsx
+++ b/docs/cda-logical-model/StructureDefinition-Component2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="104">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T15:52:41+01:00</t>
+    <t>2023-02-07T19:43:49+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -232,6 +232,10 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Base for all types and resources</t>
@@ -635,42 +639,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.1796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.1796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="22.6640625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="32.93359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.93359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="22.51171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="54.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="54.0625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.9375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.30078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.1796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.0234375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.93359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -814,13 +818,13 @@
         <v>71</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -871,13 +875,13 @@
         <v>71</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>71</v>
@@ -886,25 +890,25 @@
         <v>71</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
         <v>71</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>72</v>
@@ -919,11 +923,11 @@
         <v>71</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -950,11 +954,11 @@
         <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA3" t="s" s="2">
         <v>71</v>
@@ -972,10 +976,10 @@
         <v>71</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -992,10 +996,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1003,7 +1007,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>72</v>
@@ -1018,7 +1022,7 @@
         <v>71</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1029,7 +1033,7 @@
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S4" t="s" s="2">
         <v>71</v>
@@ -1047,11 +1051,11 @@
         <v>71</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>71</v>
@@ -1069,10 +1073,10 @@
         <v>71</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>72</v>
@@ -1089,10 +1093,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1115,14 +1119,14 @@
         <v>71</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
@@ -1168,7 +1172,7 @@
         <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>72</v>
@@ -1188,10 +1192,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1199,10 +1203,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>71</v>
@@ -1214,11 +1218,11 @@
         <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1269,13 +1273,13 @@
         <v>71</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>71</v>
@@ -1289,10 +1293,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1300,7 +1304,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -1315,11 +1319,11 @@
         <v>71</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1370,10 +1374,10 @@
         <v>71</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>72</v>
@@ -1390,10 +1394,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1401,10 +1405,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>71</v>
@@ -1416,11 +1420,11 @@
         <v>71</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1471,13 +1475,13 @@
         <v>71</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>71</v>
@@ -1491,10 +1495,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1502,7 +1506,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>72</v>
@@ -1517,7 +1521,7 @@
         <v>71</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1570,10 +1574,10 @@
         <v>71</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>72</v>
@@ -1590,10 +1594,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1601,7 +1605,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>72</v>
@@ -1616,7 +1620,7 @@
         <v>71</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1669,10 +1673,10 @@
         <v>71</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>72</v>
